--- a/artfynd/A 933-2026 artfynd.xlsx
+++ b/artfynd/A 933-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130825823</v>
+        <v>130826010</v>
       </c>
       <c r="B2" t="n">
-        <v>57877</v>
+        <v>91808</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,39 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>460947</v>
+        <v>460971</v>
       </c>
       <c r="R2" t="n">
-        <v>7039711</v>
+        <v>7039688</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,12 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:38</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Födosökshål på äldre döende gran.</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130826010</v>
+        <v>130825823</v>
       </c>
       <c r="B3" t="n">
-        <v>91804</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,34 +798,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>460971</v>
+        <v>460947</v>
       </c>
       <c r="R3" t="n">
-        <v>7039688</v>
+        <v>7039711</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -867,7 +862,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +872,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Födosökshål på äldre döende gran.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -907,7 +907,7 @@
         <v>130826784</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>130825852</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>130826011</v>
       </c>
       <c r="B6" t="n">
-        <v>92263</v>
+        <v>92267</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>130826404</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>130825491</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>130826097</v>
       </c>
       <c r="B9" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>130826548</v>
       </c>
       <c r="B10" t="n">
-        <v>56695</v>
+        <v>56699</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>130825838</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>130826137</v>
       </c>
       <c r="B12" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>130826287</v>
       </c>
       <c r="B13" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>130826478</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>130826795</v>
       </c>
       <c r="B15" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>130826291</v>
       </c>
       <c r="B16" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>130825822</v>
       </c>
       <c r="B17" t="n">
-        <v>89189</v>
+        <v>89193</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>130826442</v>
       </c>
       <c r="B18" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>130826276</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>130825533</v>
       </c>
       <c r="B20" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         <v>130826274</v>
       </c>
       <c r="B21" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2954,48 +2954,48 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130826355</v>
+        <v>130826438</v>
       </c>
       <c r="B22" t="n">
-        <v>92531</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>67</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Brännan, Brännan, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>461117</v>
+        <v>461220</v>
       </c>
       <c r="R22" t="n">
-        <v>7039629</v>
+        <v>7039590</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På undersidan av lutande död gran.</t>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3066,48 +3066,48 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130826438</v>
+        <v>130826355</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>92535</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>67</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Brännan, Brännan, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>461220</v>
+        <v>461117</v>
       </c>
       <c r="R23" t="n">
-        <v>7039590</v>
+        <v>7039629</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Rikligt i området</t>
+          <t>På undersidan av lutande död gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 933-2026 artfynd.xlsx
+++ b/artfynd/A 933-2026 artfynd.xlsx
@@ -1834,10 +1834,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130826137</v>
+        <v>130826287</v>
       </c>
       <c r="B12" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1845,34 +1845,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>461026</v>
+        <v>461096</v>
       </c>
       <c r="R12" t="n">
-        <v>7039757</v>
+        <v>7039690</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1904,7 +1909,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1914,7 +1919,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>11:04</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Barkfläkta klenare och grövre granar</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1941,7 +1951,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130826287</v>
+        <v>130826478</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1977,14 +1987,14 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
+          <t>Brännan, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>461096</v>
+        <v>461220</v>
       </c>
       <c r="R13" t="n">
-        <v>7039690</v>
+        <v>7039590</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2016,7 +2026,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2026,12 +2036,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Barkfläkta klenare och grövre granar</t>
+          <t>Födosök barkfläkt</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2058,10 +2068,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130826478</v>
+        <v>130826137</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2069,39 +2079,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Brännan, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>461220</v>
+        <v>461026</v>
       </c>
       <c r="R14" t="n">
-        <v>7039590</v>
+        <v>7039757</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2133,7 +2138,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2143,12 +2148,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:25</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Födosök barkfläkt</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 933-2026 artfynd.xlsx
+++ b/artfynd/A 933-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130826010</v>
+        <v>130825823</v>
       </c>
       <c r="B2" t="n">
-        <v>91808</v>
+        <v>57881</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>460971</v>
+        <v>460947</v>
       </c>
       <c r="R2" t="n">
-        <v>7039688</v>
+        <v>7039711</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +765,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Födosökshål på äldre döende gran.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130825823</v>
+        <v>130826010</v>
       </c>
       <c r="B3" t="n">
-        <v>57881</v>
+        <v>91808</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,39 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>460947</v>
+        <v>460971</v>
       </c>
       <c r="R3" t="n">
-        <v>7039711</v>
+        <v>7039688</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -872,12 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:38</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Födosökshål på äldre döende gran.</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1834,10 +1834,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130826287</v>
+        <v>130826137</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1845,39 +1845,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>461096</v>
+        <v>461026</v>
       </c>
       <c r="R12" t="n">
-        <v>7039690</v>
+        <v>7039757</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1909,7 +1904,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1919,12 +1914,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:04</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Barkfläkta klenare och grövre granar</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1951,7 +1941,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130826478</v>
+        <v>130826287</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1987,14 +1977,14 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Brännan, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>461220</v>
+        <v>461096</v>
       </c>
       <c r="R13" t="n">
-        <v>7039590</v>
+        <v>7039690</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2026,7 +2016,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2036,12 +2026,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Födosök barkfläkt</t>
+          <t>Barkfläkta klenare och grövre granar</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2068,10 +2058,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130826137</v>
+        <v>130826478</v>
       </c>
       <c r="B14" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2079,34 +2069,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Brännan, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>461026</v>
+        <v>461220</v>
       </c>
       <c r="R14" t="n">
-        <v>7039757</v>
+        <v>7039590</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2138,7 +2133,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2148,7 +2143,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Födosök barkfläkt</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2282,10 +2282,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130826291</v>
+        <v>130825822</v>
       </c>
       <c r="B16" t="n">
-        <v>91808</v>
+        <v>89193</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2293,21 +2293,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>461106</v>
+        <v>460947</v>
       </c>
       <c r="R16" t="n">
-        <v>7039672</v>
+        <v>7039711</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2362,7 +2362,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2389,10 +2394,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130825822</v>
+        <v>130826291</v>
       </c>
       <c r="B17" t="n">
-        <v>89193</v>
+        <v>91808</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2400,21 +2405,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2424,10 +2429,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>460947</v>
+        <v>461106</v>
       </c>
       <c r="R17" t="n">
-        <v>7039711</v>
+        <v>7039672</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2459,7 +2464,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2469,12 +2474,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:36</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>På granlåga</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2954,48 +2954,48 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130826438</v>
+        <v>130826355</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>92535</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>67</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Brännan, Brännan, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>461220</v>
+        <v>461117</v>
       </c>
       <c r="R22" t="n">
-        <v>7039590</v>
+        <v>7039629</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Rikligt i området</t>
+          <t>På undersidan av lutande död gran.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3066,48 +3066,48 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130826355</v>
+        <v>130826438</v>
       </c>
       <c r="B23" t="n">
-        <v>92535</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>67</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Brännan, Brännan, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>461117</v>
+        <v>461220</v>
       </c>
       <c r="R23" t="n">
-        <v>7039629</v>
+        <v>7039590</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På undersidan av lutande död gran.</t>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 933-2026 artfynd.xlsx
+++ b/artfynd/A 933-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130825823</v>
+        <v>130826010</v>
       </c>
       <c r="B2" t="n">
-        <v>57881</v>
+        <v>91808</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,39 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>460947</v>
+        <v>460971</v>
       </c>
       <c r="R2" t="n">
-        <v>7039711</v>
+        <v>7039688</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,12 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:38</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Födosökshål på äldre döende gran.</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130826010</v>
+        <v>130826784</v>
       </c>
       <c r="B3" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,34 +798,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Brännan, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>460971</v>
+        <v>461233</v>
       </c>
       <c r="R3" t="n">
-        <v>7039688</v>
+        <v>7039438</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -867,7 +862,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +872,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>11:37</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Födosök barkfläk</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130826784</v>
+        <v>130825823</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,16 +915,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -935,19 +935,19 @@
       <c r="I4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Brännan, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>461233</v>
+        <v>460947</v>
       </c>
       <c r="R4" t="n">
-        <v>7039438</v>
+        <v>7039711</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Födosök barkfläk</t>
+          <t>Födosökshål på äldre döende gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 933-2026 artfynd.xlsx
+++ b/artfynd/A 933-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130826010</v>
+        <v>130826784</v>
       </c>
       <c r="B2" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Brännan, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>460971</v>
+        <v>461233</v>
       </c>
       <c r="R2" t="n">
-        <v>7039688</v>
+        <v>7039438</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +765,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>11:37</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Födosök barkfläk</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130826784</v>
+        <v>130825823</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,16 +808,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -818,19 +828,19 @@
       <c r="I3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Brännan, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>461233</v>
+        <v>460947</v>
       </c>
       <c r="R3" t="n">
-        <v>7039438</v>
+        <v>7039711</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,7 +872,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -872,12 +882,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Födosök barkfläk</t>
+          <t>Födosökshål på äldre döende gran.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130825823</v>
+        <v>130825852</v>
       </c>
       <c r="B4" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,16 +925,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -935,7 +945,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -944,13 +954,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>460947</v>
+        <v>460952</v>
       </c>
       <c r="R4" t="n">
-        <v>7039711</v>
+        <v>7039723</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -979,7 +989,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,12 +999,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Födosökshål på äldre döende gran.</t>
+          <t>Barkfläkta grövre och klenare granar.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130825852</v>
+        <v>130826010</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,42 +1042,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>460952</v>
+        <v>460971</v>
       </c>
       <c r="R5" t="n">
-        <v>7039723</v>
+        <v>7039688</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1096,7 +1101,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1106,12 +1111,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:42</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Barkfläkta grövre och klenare granar.</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -2282,10 +2282,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130825822</v>
+        <v>130826291</v>
       </c>
       <c r="B16" t="n">
-        <v>89193</v>
+        <v>91808</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2293,21 +2293,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>460947</v>
+        <v>461106</v>
       </c>
       <c r="R16" t="n">
-        <v>7039711</v>
+        <v>7039672</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2362,12 +2362,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>10:36</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>På granlåga</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2394,10 +2389,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130826291</v>
+        <v>130825822</v>
       </c>
       <c r="B17" t="n">
-        <v>91808</v>
+        <v>89193</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2405,21 +2400,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2429,10 +2424,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>461106</v>
+        <v>460947</v>
       </c>
       <c r="R17" t="n">
-        <v>7039672</v>
+        <v>7039711</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2464,7 +2459,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2474,7 +2469,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 933-2026 artfynd.xlsx
+++ b/artfynd/A 933-2026 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130826784</v>
+        <v>130825852</v>
       </c>
       <c r="B2" t="n">
         <v>57884</v>
@@ -716,17 +716,17 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Brännan, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>461233</v>
+        <v>460952</v>
       </c>
       <c r="R2" t="n">
-        <v>7039438</v>
+        <v>7039723</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Födosök barkfläk</t>
+          <t>Barkfläkta grövre och klenare granar.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130825823</v>
+        <v>130826784</v>
       </c>
       <c r="B3" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -828,19 +828,19 @@
       <c r="I3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
+          <t>Brännan, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>460947</v>
+        <v>461233</v>
       </c>
       <c r="R3" t="n">
-        <v>7039711</v>
+        <v>7039438</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -872,7 +872,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Födosökshål på äldre döende gran.</t>
+          <t>Födosök barkfläk</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130825852</v>
+        <v>130825823</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -945,7 +945,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>460952</v>
+        <v>460947</v>
       </c>
       <c r="R4" t="n">
-        <v>7039723</v>
+        <v>7039711</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Barkfläkta grövre och klenare granar.</t>
+          <t>Födosökshål på äldre döende gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1834,10 +1834,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130826137</v>
+        <v>130826287</v>
       </c>
       <c r="B12" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1845,34 +1845,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>461026</v>
+        <v>461096</v>
       </c>
       <c r="R12" t="n">
-        <v>7039757</v>
+        <v>7039690</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1904,7 +1909,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1914,7 +1919,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>11:04</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Barkfläkta klenare och grövre granar</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1941,7 +1951,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130826287</v>
+        <v>130826478</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1977,14 +1987,14 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
+          <t>Brännan, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>461096</v>
+        <v>461220</v>
       </c>
       <c r="R13" t="n">
-        <v>7039690</v>
+        <v>7039590</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2016,7 +2026,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2026,12 +2036,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Barkfläkta klenare och grövre granar</t>
+          <t>Födosök barkfläkt</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2058,10 +2068,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130826478</v>
+        <v>130826137</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2069,39 +2079,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Brännan, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>461220</v>
+        <v>461026</v>
       </c>
       <c r="R14" t="n">
-        <v>7039590</v>
+        <v>7039757</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2133,7 +2138,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2143,12 +2148,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:25</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Födosök barkfläkt</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2954,48 +2954,48 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130826355</v>
+        <v>130826438</v>
       </c>
       <c r="B22" t="n">
-        <v>92535</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>67</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Brännan, Brännan, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>461117</v>
+        <v>461220</v>
       </c>
       <c r="R22" t="n">
-        <v>7039629</v>
+        <v>7039590</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På undersidan av lutande död gran.</t>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3066,48 +3066,48 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130826438</v>
+        <v>130826355</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>92535</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>67</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Brännan, Brännan, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>461220</v>
+        <v>461117</v>
       </c>
       <c r="R23" t="n">
-        <v>7039590</v>
+        <v>7039629</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Rikligt i området</t>
+          <t>På undersidan av lutande död gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 933-2026 artfynd.xlsx
+++ b/artfynd/A 933-2026 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130825852</v>
+        <v>130826784</v>
       </c>
       <c r="B2" t="n">
         <v>57884</v>
@@ -716,17 +716,17 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
+          <t>Brännan, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>460952</v>
+        <v>461233</v>
       </c>
       <c r="R2" t="n">
-        <v>7039723</v>
+        <v>7039438</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Barkfläkta grövre och klenare granar.</t>
+          <t>Födosök barkfläk</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130826784</v>
+        <v>130826010</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,39 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Brännan, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>461233</v>
+        <v>460971</v>
       </c>
       <c r="R3" t="n">
-        <v>7039438</v>
+        <v>7039688</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -872,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -882,12 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:37</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Födosök barkfläk</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -914,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130825823</v>
+        <v>130825852</v>
       </c>
       <c r="B4" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -925,16 +915,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -945,7 +935,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -954,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>460947</v>
+        <v>460952</v>
       </c>
       <c r="R4" t="n">
-        <v>7039711</v>
+        <v>7039723</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -989,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -999,12 +989,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Födosökshål på äldre döende gran.</t>
+          <t>Barkfläkta grövre och klenare granar.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1031,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130826010</v>
+        <v>130825823</v>
       </c>
       <c r="B5" t="n">
-        <v>91808</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1042,34 +1032,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>460971</v>
+        <v>460947</v>
       </c>
       <c r="R5" t="n">
-        <v>7039688</v>
+        <v>7039711</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1101,7 +1096,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1111,7 +1106,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Födosökshål på äldre döende gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1834,10 +1834,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130826287</v>
+        <v>130826137</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1845,39 +1845,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>461096</v>
+        <v>461026</v>
       </c>
       <c r="R12" t="n">
-        <v>7039690</v>
+        <v>7039757</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1909,7 +1904,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1919,12 +1914,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:04</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Barkfläkta klenare och grövre granar</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1951,7 +1941,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130826478</v>
+        <v>130826287</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1987,14 +1977,14 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Brännan, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>461220</v>
+        <v>461096</v>
       </c>
       <c r="R13" t="n">
-        <v>7039590</v>
+        <v>7039690</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2026,7 +2016,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2036,12 +2026,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Födosök barkfläkt</t>
+          <t>Barkfläkta klenare och grövre granar</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2068,10 +2058,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130826137</v>
+        <v>130826478</v>
       </c>
       <c r="B14" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2079,34 +2069,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Brännan, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>461026</v>
+        <v>461220</v>
       </c>
       <c r="R14" t="n">
-        <v>7039757</v>
+        <v>7039590</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2138,7 +2133,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2148,7 +2143,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Födosök barkfläkt</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 933-2026 artfynd.xlsx
+++ b/artfynd/A 933-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130826784</v>
+        <v>130826010</v>
       </c>
       <c r="B2" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,39 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Brännan, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>461233</v>
+        <v>460971</v>
       </c>
       <c r="R2" t="n">
-        <v>7039438</v>
+        <v>7039688</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,12 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:37</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Födosök barkfläk</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130826010</v>
+        <v>130825823</v>
       </c>
       <c r="B3" t="n">
-        <v>91808</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,34 +798,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>460971</v>
+        <v>460947</v>
       </c>
       <c r="R3" t="n">
-        <v>7039688</v>
+        <v>7039711</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -867,7 +862,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +872,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Födosökshål på äldre döende gran.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130825852</v>
+        <v>130826784</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -940,17 +940,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
+          <t>Brännan, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>460952</v>
+        <v>461233</v>
       </c>
       <c r="R4" t="n">
-        <v>7039723</v>
+        <v>7039438</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Barkfläkta grövre och klenare granar.</t>
+          <t>Födosök barkfläk</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130825823</v>
+        <v>130825852</v>
       </c>
       <c r="B5" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,16 +1032,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1052,7 +1052,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1061,13 +1061,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>460947</v>
+        <v>460952</v>
       </c>
       <c r="R5" t="n">
-        <v>7039711</v>
+        <v>7039723</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Födosökshål på äldre döende gran.</t>
+          <t>Barkfläkta grövre och klenare granar.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -2954,48 +2954,48 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130826438</v>
+        <v>130826355</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>92535</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>67</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Brännan, Brännan, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>461220</v>
+        <v>461117</v>
       </c>
       <c r="R22" t="n">
-        <v>7039590</v>
+        <v>7039629</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Rikligt i området</t>
+          <t>På undersidan av lutande död gran.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3066,48 +3066,48 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130826355</v>
+        <v>130826438</v>
       </c>
       <c r="B23" t="n">
-        <v>92535</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>67</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Brännan, Brännan, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>461117</v>
+        <v>461220</v>
       </c>
       <c r="R23" t="n">
-        <v>7039629</v>
+        <v>7039590</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På undersidan av lutande död gran.</t>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 933-2026 artfynd.xlsx
+++ b/artfynd/A 933-2026 artfynd.xlsx
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130825823</v>
+        <v>130826784</v>
       </c>
       <c r="B3" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -798,16 +798,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -818,19 +818,19 @@
       <c r="I3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
+          <t>Brännan, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>460947</v>
+        <v>461233</v>
       </c>
       <c r="R3" t="n">
-        <v>7039711</v>
+        <v>7039438</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Födosökshål på äldre döende gran.</t>
+          <t>Födosök barkfläk</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130826784</v>
+        <v>130825852</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -940,17 +940,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Brännan, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>461233</v>
+        <v>460952</v>
       </c>
       <c r="R4" t="n">
-        <v>7039438</v>
+        <v>7039723</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Födosök barkfläk</t>
+          <t>Barkfläkta grövre och klenare granar.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130825852</v>
+        <v>130825823</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,16 +1032,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1052,7 +1052,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1061,13 +1061,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>460952</v>
+        <v>460947</v>
       </c>
       <c r="R5" t="n">
-        <v>7039723</v>
+        <v>7039711</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Barkfläkta grövre och klenare granar.</t>
+          <t>Födosökshål på äldre döende gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 933-2026 artfynd.xlsx
+++ b/artfynd/A 933-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130826010</v>
       </c>
       <c r="B2" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130826784</v>
+        <v>130825852</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -823,17 +823,17 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Brännan, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>461233</v>
+        <v>460952</v>
       </c>
       <c r="R3" t="n">
-        <v>7039438</v>
+        <v>7039723</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Födosök barkfläk</t>
+          <t>Barkfläkta grövre och klenare granar.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130825852</v>
+        <v>130825823</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,16 +915,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -935,7 +935,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>460952</v>
+        <v>460947</v>
       </c>
       <c r="R4" t="n">
-        <v>7039723</v>
+        <v>7039711</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Barkfläkta grövre och klenare granar.</t>
+          <t>Födosökshål på äldre döende gran.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130825823</v>
+        <v>130826784</v>
       </c>
       <c r="B5" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,16 +1032,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1052,19 +1052,19 @@
       <c r="I5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
+          <t>Brännan, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>460947</v>
+        <v>461233</v>
       </c>
       <c r="R5" t="n">
-        <v>7039711</v>
+        <v>7039438</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Födosökshål på äldre döende gran.</t>
+          <t>Födosök barkfläk</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1141,7 +1141,7 @@
         <v>130826011</v>
       </c>
       <c r="B6" t="n">
-        <v>92267</v>
+        <v>92268</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>130825491</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>130825838</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>130826137</v>
       </c>
       <c r="B12" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>130826795</v>
       </c>
       <c r="B15" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>130826291</v>
       </c>
       <c r="B16" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>130825822</v>
       </c>
       <c r="B17" t="n">
-        <v>89193</v>
+        <v>89194</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>130826442</v>
       </c>
       <c r="B18" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>130826276</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2954,48 +2954,48 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130826355</v>
+        <v>130826438</v>
       </c>
       <c r="B22" t="n">
-        <v>92535</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>67</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Brännan, Brännan, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>461117</v>
+        <v>461220</v>
       </c>
       <c r="R22" t="n">
-        <v>7039629</v>
+        <v>7039590</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På undersidan av lutande död gran.</t>
+          <t>Rikligt i området</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3066,48 +3066,48 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130826438</v>
+        <v>130826355</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>92536</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>67</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Brännan, Brännan, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>461220</v>
+        <v>461117</v>
       </c>
       <c r="R23" t="n">
-        <v>7039590</v>
+        <v>7039629</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Rikligt i området</t>
+          <t>På undersidan av lutande död gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 933-2026 artfynd.xlsx
+++ b/artfynd/A 933-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130826010</v>
+        <v>130825823</v>
       </c>
       <c r="B2" t="n">
-        <v>91809</v>
+        <v>57881</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Flinktorpet, Flinktorpet, Jmt</t>
+          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>460971</v>
+        <v>460947</v>
       </c>
       <c r="R2" t="n">
-        <v>7039688</v>
+        <v>7039711</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +765,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Födosökshål på äldre döende gran.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130825852</v>
+        <v>130826784</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -823,17 +833,17 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Flinktorpet, Kälom, Offerdal, Jmt</t>
+          <t>Brännan, Kälom, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>460952</v>
+        <v>461233</v>
       </c>
       <c r="R3" t="n">
-        <v>7039723</v>
+        <v>7039438</v>
       </c>
       <c r="S3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +872,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -872,12 +882,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:37</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Barkfläkta grövre och klenare granar.</t>
+          <t>Födosök barkfläk</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130825823</v>
+        <v>130825852</v>
       </c>
       <c r="B4" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,16 +925,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -935,7 +945,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -944,13 +954,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>460947</v>
+        <v>460952</v>
       </c>
       <c r="R4" t="n">
-        <v>7039711</v>
+        <v>7039723</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -979,7 +989,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,12 +999,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Födosökshål på äldre döende gran.</t>
+          <t>Barkfläkta grövre och klenare granar.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130826784</v>
+        <v>130826010</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>91809</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,39 +1042,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Brännan, Kälom, Offerdal, Jmt</t>
+          <t>Flinktorpet, Flinktorpet, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>461233</v>
+        <v>460971</v>
       </c>
       <c r="R5" t="n">
-        <v>7039438</v>
+        <v>7039688</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1096,7 +1101,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:37</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1106,12 +1111,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:37</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Födosök barkfläk</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -2282,10 +2282,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130826291</v>
+        <v>130825822</v>
       </c>
       <c r="B16" t="n">
-        <v>91809</v>
+        <v>89194</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2293,21 +2293,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>461106</v>
+        <v>460947</v>
       </c>
       <c r="R16" t="n">
-        <v>7039672</v>
+        <v>7039711</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2362,7 +2362,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2389,10 +2394,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130825822</v>
+        <v>130826291</v>
       </c>
       <c r="B17" t="n">
-        <v>89194</v>
+        <v>91809</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2400,21 +2405,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2424,10 +2429,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>460947</v>
+        <v>461106</v>
       </c>
       <c r="R17" t="n">
-        <v>7039711</v>
+        <v>7039672</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2459,7 +2464,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2469,12 +2474,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:36</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>På granlåga</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD17" t="b">
